--- a/participation.xlsx
+++ b/participation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivr\Certification_Gen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE42E5C-0A72-4583-ADD0-BD58D905C31E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="360" yWindow="72" windowWidth="14352" windowHeight="4692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="4">
   <si>
     <t>Quiz Competition</t>
   </si>
@@ -33,8 +39,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,11 +80,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -86,6 +90,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -132,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,9 +176,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,6 +228,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,91 +421,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="C10" s="2"/>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{CBAB2144-0EDD-4345-9A6C-E9B9B5038BBD}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{2A668A88-0AF2-456D-804E-16449782426B}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{571B106A-5105-493C-B6CB-2A8292656F5E}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{1A1F4749-7802-4CC7-BCF9-CAFE1944CE6F}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{299EF424-9C91-45A4-B3B2-C364D929F38E}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{1B2E8207-853D-4B95-9B5E-E5AD3D616FE8}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{49FCBDD3-7B8D-4DB4-84D3-29DF30A490CD}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{78A11C27-20E6-4A37-B1AB-3E99F320FDBE}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{624668C3-1B34-4AAC-A4E8-34F4E4E22A01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
